--- a/doc/tools/twobodyorbits.xlsx
+++ b/doc/tools/twobodyorbits.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaacfoster/My Drive/Mainframe/parambulator/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaacfoster/My Drive/Mainframe/internal/parambulator/doc/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92FD117-15F8-B040-BA5B-D951C5900582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D74E498-A258-1E46-91DE-FA2E765A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{B3B253B2-74AE-5A4D-BAC3-F659F21F5A8A}"/>
   </bookViews>
@@ -687,7 +687,7 @@
   <dimension ref="B1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
